--- a/results/cifar100/global_results_cifar100.xlsx
+++ b/results/cifar100/global_results_cifar100.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascu\Desktop\Pascual\Pascual\3- UNIVERSIDAD\TUM\Master Biomedical Computing\Master\Master Thesis\3D Organ detection\Code\continual_learning_methods\results\cifar100\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82144D-83C3-4D31-819B-D89DEA4C7E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Global metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +120,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -149,21 +146,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,7 +224,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,10 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,32 +433,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,45 +494,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53.8</v>
+        <v>54.46</v>
       </c>
       <c r="C3">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
       <c r="D3">
-        <v>54.38</v>
+        <v>55.16</v>
       </c>
       <c r="E3">
-        <v>55.22</v>
+        <v>54.58</v>
       </c>
       <c r="F3">
-        <v>54.94</v>
+        <v>55.78</v>
       </c>
       <c r="G3">
-        <v>55.28</v>
+        <v>56</v>
       </c>
       <c r="H3">
-        <v>53.68</v>
+        <v>54.16</v>
       </c>
       <c r="I3">
-        <v>55.12</v>
+        <v>54.96</v>
       </c>
       <c r="J3">
-        <v>55.26</v>
+        <v>54.2</v>
       </c>
       <c r="K3">
-        <v>56.94</v>
+        <v>55.44</v>
       </c>
       <c r="L3">
-        <v>54.2</v>
+        <v>54.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -585,45 +570,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>26.9</v>
+        <v>27.23</v>
       </c>
       <c r="C5">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
       <c r="D5">
-        <v>27.19</v>
+        <v>27.58</v>
       </c>
       <c r="E5">
-        <v>27.61</v>
+        <v>27.29</v>
       </c>
       <c r="F5">
-        <v>27.47</v>
+        <v>27.89</v>
       </c>
       <c r="G5">
-        <v>27.64</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>26.84</v>
+        <v>27.08</v>
       </c>
       <c r="I5">
-        <v>27.56</v>
+        <v>27.48</v>
       </c>
       <c r="J5">
-        <v>27.63</v>
+        <v>27.1</v>
       </c>
       <c r="K5">
-        <v>28.47</v>
+        <v>27.72</v>
       </c>
       <c r="L5">
-        <v>27.1</v>
+        <v>27.35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -631,110 +616,110 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
       <c r="D6">
-        <v>15.52</v>
+        <v>13.06</v>
       </c>
       <c r="E6">
-        <v>31.7</v>
+        <v>31.26</v>
       </c>
       <c r="F6">
-        <v>40.6</v>
+        <v>40.26</v>
       </c>
       <c r="G6">
-        <v>2.68</v>
+        <v>3.54</v>
       </c>
       <c r="H6">
-        <v>42.52</v>
+        <v>40.04</v>
       </c>
       <c r="I6">
-        <v>9.26</v>
+        <v>11.6</v>
       </c>
       <c r="J6">
-        <v>40.799999999999997</v>
+        <v>44.7</v>
       </c>
       <c r="K6">
-        <v>8.94</v>
+        <v>5.2</v>
       </c>
       <c r="L6">
-        <v>4.6399999999999997</v>
+        <v>21.04</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>58.98</v>
+      </c>
+      <c r="C7">
+        <v>50.28</v>
+      </c>
+      <c r="D7">
+        <v>57.04</v>
+      </c>
+      <c r="E7">
+        <v>52.88</v>
+      </c>
+      <c r="F7">
+        <v>53.44</v>
+      </c>
+      <c r="G7">
+        <v>12.54</v>
+      </c>
+      <c r="H7">
+        <v>40.6</v>
+      </c>
+      <c r="I7">
+        <v>54.7</v>
+      </c>
+      <c r="J7">
+        <v>33.5</v>
+      </c>
+      <c r="K7">
         <v>58.32</v>
       </c>
-      <c r="C7">
-        <v>49.65</v>
-      </c>
-      <c r="D7">
-        <v>56.8</v>
-      </c>
-      <c r="E7">
-        <v>52.58</v>
-      </c>
-      <c r="F7">
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <v>15.98</v>
-      </c>
-      <c r="H7">
-        <v>38.36</v>
-      </c>
-      <c r="I7">
-        <v>57.02</v>
-      </c>
-      <c r="J7">
-        <v>40.64</v>
-      </c>
-      <c r="K7">
-        <v>58.98</v>
-      </c>
       <c r="L7">
-        <v>44.12</v>
+        <v>48.94</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>29.16</v>
+        <v>29.49</v>
       </c>
       <c r="C8">
-        <v>49.65</v>
+        <v>50.28</v>
       </c>
       <c r="D8">
-        <v>36.159999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="E8">
-        <v>42.14</v>
+        <v>42.07</v>
       </c>
       <c r="F8">
-        <v>45.8</v>
+        <v>46.84999999999999</v>
       </c>
       <c r="G8">
-        <v>9.33</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H8">
-        <v>40.44</v>
+        <v>40.32</v>
       </c>
       <c r="I8">
-        <v>33.14</v>
+        <v>33.15</v>
       </c>
       <c r="J8">
-        <v>40.72</v>
+        <v>39.1</v>
       </c>
       <c r="K8">
-        <v>33.96</v>
+        <v>31.76</v>
       </c>
       <c r="L8">
-        <v>24.38</v>
+        <v>34.98999999999999</v>
       </c>
     </row>
   </sheetData>
